--- a/biology/Botanique/Phytoplasme/Phytoplasme.xlsx
+++ b/biology/Botanique/Phytoplasme/Phytoplasme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phytoplasmes sont des bactéries sans paroi et dépourvues de forme spécifique (procaryotes pléiomorphes) qui se multiplient exclusivement dans les tubes criblés du phloème. 
 Ils appartiennent à la classe des Mollicutes. À leur découverte ils ont été nommés MLO (sigle de Mycoplasma Like Organism) en raison de leur ressemblance (en microscopie électronique) avec les mycoplasmes.
@@ -514,7 +526,9 @@
           <t>Exemple de la prolifération du pommier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La prolifération du pommier est une maladie anciennement connue mais discrète ces dernières années, qui connaît actuellement une certaine recrudescence. Elle est due à un phytoplasme transmis par au moins une espèce de psylle. Sa recrudescence est probablement liée à l'allègement des traitements insecticides polyvalents dans le cadre de la lutte intégrée, dans les vergers mais aussi leur environnement. Une fois la maladie identifiée (examen des symptômes et vérification au laboratoire), le seul moyen de lutte est l'arrachage des arbres.
 </t>
@@ -545,14 +559,16 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les phytoplasmes appartiennent à l'ordre monophylétique des Acholeplasmatales[1]. 
-En 1992, le sous-comité de taxinomie des Mollicutes du Comité International de Systématique des Procaryotes a proposé d'employer le nom de Phytoplasma au lieu du terme pseudo-mycoplasme ou MLO (mycoplasma-like organism) « en référence aux mollicutes phytopathogènes »[2]. 
-Le nom générique Phytoplasma fut adopté en 2004. Il est actuellement sous le statut de Candidatus[3], qui est employé pour désigner les bactéries qui ne peuvent être cultivées. 
-Sa taxinomie est compliquée car il ne peut pas être cultivé, donc les méthodes normalement utilisées pour la classification des procaryotes ne sont pas possibles[1].
-La classification des phytoplasmes en groupes taxinomiques sont fondées sur des différences de taille des fragments produits par la digestion de restriction de la séquence du gène 16S ARNr (RFLP) ou par comparaison de séquences d'ADN des régions de l'espaceur 16s / 23s[4]. 
-Des désaccords subsistent sur le nombre de groupes taxinomiques des phytoplasmes, des travaux récents faisant appel à la simulation par ordinateur des restrictions de digestion du gène 16S ARNr suggèrent qu'il pourrait y avoir jusqu'à 28 groupes[5], tandis que d'autres articlent plaident pour moins de groupes, mais plus de sous-groupes. Chaque groupe comprend au moins une espèce de Candidatus Phytoplasma caractérisée par des propriétés distinctives biologiques, phytopathologies et génétiques. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les phytoplasmes appartiennent à l'ordre monophylétique des Acholeplasmatales. 
+En 1992, le sous-comité de taxinomie des Mollicutes du Comité International de Systématique des Procaryotes a proposé d'employer le nom de Phytoplasma au lieu du terme pseudo-mycoplasme ou MLO (mycoplasma-like organism) « en référence aux mollicutes phytopathogènes ». 
+Le nom générique Phytoplasma fut adopté en 2004. Il est actuellement sous le statut de Candidatus, qui est employé pour désigner les bactéries qui ne peuvent être cultivées. 
+Sa taxinomie est compliquée car il ne peut pas être cultivé, donc les méthodes normalement utilisées pour la classification des procaryotes ne sont pas possibles.
+La classification des phytoplasmes en groupes taxinomiques sont fondées sur des différences de taille des fragments produits par la digestion de restriction de la séquence du gène 16S ARNr (RFLP) ou par comparaison de séquences d'ADN des régions de l'espaceur 16s / 23s. 
+Des désaccords subsistent sur le nombre de groupes taxinomiques des phytoplasmes, des travaux récents faisant appel à la simulation par ordinateur des restrictions de digestion du gène 16S ARNr suggèrent qu'il pourrait y avoir jusqu'à 28 groupes, tandis que d'autres articlent plaident pour moins de groupes, mais plus de sous-groupes. Chaque groupe comprend au moins une espèce de Candidatus Phytoplasma caractérisée par des propriétés distinctives biologiques, phytopathologies et génétiques. 
 Liste des espèces de Ca. Phytoplasma, principaux groupes et sous-groupes publiés avec leurs noms communs et numéros d'accession GenBank  de la séquence du gène 16S ARNr.
 Nota : les espèces de Ca. Phytoplasma indiquées entre crochets sont provisoires (similarité des séquence du 16S ARNr  inférieure à 97,5 %) et non encore publiées séparément comme espèces nouvelles.« Indéterminé » indique les espèces de Ca. Phytoplasma pour lesquelles le classement dans un groupe ou sous-groupe est en attente.« Non assigné » indique les espèces de Ca. Phytoplasma dont le statut est en attente (similarité des séquence du 16S ARNr supérieure à 97,5 %) car les symptômes présentés par la plante ou l'insecte hôtes sont significativement différents lorsqu'ils sont infectés par la souche du phytoplasme décrite comparée à une souche de la même espèce ou du même groupe.</t>
         </is>
